--- a/实验结果保存.xlsx
+++ b/实验结果保存.xlsx
@@ -7,10 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="河南数据集" sheetId="1" r:id="rId1"/>
-    <sheet name="河北数据集" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="河南数据集K=7" sheetId="1" r:id="rId1"/>
+    <sheet name="河南数据集K=4" sheetId="8" r:id="rId2"/>
+    <sheet name="河北数据集K=7" sheetId="4" r:id="rId3"/>
+    <sheet name="河北数据集K=3" sheetId="5" r:id="rId4"/>
+    <sheet name="河北数据集K=4" sheetId="7" r:id="rId5"/>
+    <sheet name="河北数据集K=5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t xml:space="preserve">RMSE </t>
   </si>
@@ -56,6 +60,15 @@
     <t>CNN-BiLSTM</t>
   </si>
   <si>
+    <t>VMD-CNN</t>
+  </si>
+  <si>
+    <t>VMD-LSTM</t>
+  </si>
+  <si>
+    <t>VMD-CNN-LSTM</t>
+  </si>
+  <si>
     <t>VMD-CNN-BiLSTM</t>
   </si>
   <si>
@@ -78,12 +91,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -695,11 +707,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1012,10 +1024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1112,16 +1124,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.0059</v>
+        <v>0.0053</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0069</v>
+        <v>0.0072</v>
       </c>
       <c r="D6">
-        <v>0.0042</v>
+        <v>0.0041</v>
       </c>
       <c r="E6">
-        <v>0.9979</v>
+        <v>0.9983</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1129,51 +1141,91 @@
         <v>9</v>
       </c>
       <c r="B7">
+        <v>0.0047</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0059</v>
+      </c>
+      <c r="D7">
+        <v>0.0034</v>
+      </c>
+      <c r="E7">
+        <v>0.9986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.0059</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0069</v>
+      </c>
+      <c r="D9">
+        <v>0.0042</v>
+      </c>
+      <c r="E9">
+        <v>0.9979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>0.005474</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C10" s="1">
         <v>0.00604426</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>0.003728</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>0.998138</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:E14"/>
+    <mergeCell ref="A14:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1184,10 +1236,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1215,137 +1267,116 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.0281</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.0274</v>
-      </c>
-      <c r="D2">
-        <v>0.021</v>
-      </c>
-      <c r="E2">
-        <v>0.9021</v>
-      </c>
+      <c r="B2"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.0318</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.0297</v>
-      </c>
-      <c r="D3">
-        <v>0.023</v>
-      </c>
-      <c r="E3">
-        <v>0.8747</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.0329</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.0315</v>
-      </c>
-      <c r="D4">
-        <v>0.0244</v>
-      </c>
-      <c r="E4">
-        <v>0.866</v>
-      </c>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.0349</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.0336</v>
-      </c>
-      <c r="D5">
-        <v>0.0261</v>
-      </c>
-      <c r="E5">
-        <v>0.8494</v>
-      </c>
+      <c r="B5"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.005</v>
+      <c r="B6">
+        <v>0.0083</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0044</v>
+        <v>0.0105</v>
       </c>
       <c r="D6">
-        <v>0.0034</v>
+        <v>0.0063</v>
       </c>
       <c r="E6">
-        <v>0.997</v>
+        <v>0.9957</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0.0051</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.0046</v>
-      </c>
-      <c r="D7">
-        <v>0.0035</v>
-      </c>
-      <c r="E7">
-        <v>0.9968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.0077</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0094</v>
+      </c>
+      <c r="D10">
+        <v>0.0057</v>
+      </c>
+      <c r="E10">
+        <v>0.9963</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:E14"/>
+    <mergeCell ref="A14:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1354,6 +1385,828 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.0281</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0274</v>
+      </c>
+      <c r="D2">
+        <v>0.021</v>
+      </c>
+      <c r="E2">
+        <v>0.9021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.0318</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0297</v>
+      </c>
+      <c r="D3">
+        <v>0.023</v>
+      </c>
+      <c r="E3">
+        <v>0.8747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.0329</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0315</v>
+      </c>
+      <c r="D4">
+        <v>0.0244</v>
+      </c>
+      <c r="E4">
+        <v>0.866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.0349</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0336</v>
+      </c>
+      <c r="D5">
+        <v>0.0261</v>
+      </c>
+      <c r="E5">
+        <v>0.8494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.0056</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0051</v>
+      </c>
+      <c r="D6">
+        <v>0.0039</v>
+      </c>
+      <c r="E6">
+        <v>0.9961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.0051</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0045</v>
+      </c>
+      <c r="D7">
+        <v>0.0035</v>
+      </c>
+      <c r="E7">
+        <v>0.9967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.0058</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0053</v>
+      </c>
+      <c r="D8">
+        <v>0.0041</v>
+      </c>
+      <c r="E8">
+        <v>0.9959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0044</v>
+      </c>
+      <c r="D9">
+        <v>0.0034</v>
+      </c>
+      <c r="E9">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.0051</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0046</v>
+      </c>
+      <c r="D10">
+        <v>0.0035</v>
+      </c>
+      <c r="E10">
+        <v>0.9968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.0296</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0287</v>
+      </c>
+      <c r="D2">
+        <v>0.022</v>
+      </c>
+      <c r="E2">
+        <v>0.8915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.0315</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0293</v>
+      </c>
+      <c r="D3">
+        <v>0.0228</v>
+      </c>
+      <c r="E3">
+        <v>0.8768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.0343</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0336</v>
+      </c>
+      <c r="D4">
+        <v>0.0261</v>
+      </c>
+      <c r="E4">
+        <v>0.8544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.0352</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0344</v>
+      </c>
+      <c r="D5">
+        <v>0.0267</v>
+      </c>
+      <c r="E5">
+        <v>0.8463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.0162</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0163</v>
+      </c>
+      <c r="D6">
+        <v>0.0124</v>
+      </c>
+      <c r="E6">
+        <v>0.9677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.0163</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0165</v>
+      </c>
+      <c r="D7">
+        <v>0.0126</v>
+      </c>
+      <c r="E7">
+        <v>0.967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.0165</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0166</v>
+      </c>
+      <c r="D8">
+        <v>0.0126</v>
+      </c>
+      <c r="E8">
+        <v>0.9665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.0164</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0164</v>
+      </c>
+      <c r="D9">
+        <v>0.0125</v>
+      </c>
+      <c r="E9">
+        <v>0.9665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.0106</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0103</v>
+      </c>
+      <c r="D10">
+        <v>0.0079</v>
+      </c>
+      <c r="E10">
+        <v>0.9861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.0293</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0281</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0215</v>
+      </c>
+      <c r="E2">
+        <v>0.8937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.0317</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0291</v>
+      </c>
+      <c r="D3">
+        <v>0.0227</v>
+      </c>
+      <c r="E3">
+        <v>0.8757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.033</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0316</v>
+      </c>
+      <c r="D4">
+        <v>0.0245</v>
+      </c>
+      <c r="E4">
+        <v>0.8654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.0347</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.034</v>
+      </c>
+      <c r="D5">
+        <v>0.0263</v>
+      </c>
+      <c r="E5">
+        <v>0.8506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.0118</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0119</v>
+      </c>
+      <c r="D6">
+        <v>0.0091</v>
+      </c>
+      <c r="E6">
+        <v>0.9828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.0122</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0123</v>
+      </c>
+      <c r="D7">
+        <v>0.0093</v>
+      </c>
+      <c r="E7">
+        <v>0.9815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.0125</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0126</v>
+      </c>
+      <c r="D8">
+        <v>0.0097</v>
+      </c>
+      <c r="E8">
+        <v>0.9807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.0124</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0126</v>
+      </c>
+      <c r="D9">
+        <v>0.0096</v>
+      </c>
+      <c r="E9">
+        <v>0.9809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.0082</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.008</v>
+      </c>
+      <c r="D10">
+        <v>0.0062</v>
+      </c>
+      <c r="E10">
+        <v>0.9917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.0081</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0078</v>
+      </c>
+      <c r="D6">
+        <v>0.006</v>
+      </c>
+      <c r="E6">
+        <v>0.9919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.0076</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0072</v>
+      </c>
+      <c r="D10">
+        <v>0.0056</v>
+      </c>
+      <c r="E10">
+        <v>0.9929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1370,7 +2223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/实验结果保存.xlsx
+++ b/实验结果保存.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="16">
   <si>
     <t xml:space="preserve">RMSE </t>
   </si>
@@ -63,6 +63,9 @@
     <t>VMD-CNN</t>
   </si>
   <si>
+    <t>VMD-RNN</t>
+  </si>
+  <si>
     <t>VMD-LSTM</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
   </si>
   <si>
     <t>含残差量VMD-CNN-BiLSTM</t>
+  </si>
+  <si>
+    <t>动态VMD-RNN-BiLSTM</t>
   </si>
   <si>
     <t xml:space="preserve">备注：                     
@@ -91,11 +97,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -700,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +718,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1141,69 +1151,84 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0047</v>
+        <v>0.0065</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0059</v>
-      </c>
-      <c r="D7">
-        <v>0.0034</v>
+        <v>0.0085</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.005</v>
       </c>
       <c r="E7">
-        <v>0.9986</v>
+        <v>0.9974</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="B8">
+        <v>0.0047</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0059</v>
+      </c>
+      <c r="D8">
+        <v>0.0034</v>
+      </c>
+      <c r="E8">
+        <v>0.9986</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>0.0059</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.0069</v>
-      </c>
-      <c r="D9">
-        <v>0.0042</v>
-      </c>
-      <c r="E9">
-        <v>0.9979</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
+        <v>0.0059</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0069</v>
+      </c>
+      <c r="D10">
+        <v>0.0042</v>
+      </c>
+      <c r="E10">
+        <v>0.9979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>0.005474</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>0.00604426</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>0.003728</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0.998138</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1223,9 +1248,16 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A14:E17"/>
+    <mergeCell ref="A15:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1267,28 +1299,24 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5">
@@ -1310,26 +1338,25 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>12</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.0077</v>
@@ -1346,7 +1373,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1501,7 +1528,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.0051</v>
@@ -1518,7 +1545,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.0058</v>
@@ -1535,7 +1562,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.005</v>
@@ -1552,7 +1579,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.0051</v>
@@ -1569,7 +1596,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1724,7 +1751,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.0163</v>
@@ -1741,7 +1768,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.0165</v>
@@ -1758,7 +1785,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.0164</v>
@@ -1775,7 +1802,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.0106</v>
@@ -1792,7 +1819,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1947,7 +1974,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.0122</v>
@@ -1964,7 +1991,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.0125</v>
@@ -1981,7 +2008,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.0124</v>
@@ -1998,7 +2025,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.0082</v>
@@ -2015,7 +2042,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2087,28 +2114,24 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5">
@@ -2130,28 +2153,25 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7"/>
+        <v>10</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8"/>
+        <v>11</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>12</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.0076</v>
@@ -2168,7 +2188,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>

--- a/实验结果保存.xlsx
+++ b/实验结果保存.xlsx
@@ -4,17 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="河南数据集K=7" sheetId="1" r:id="rId1"/>
-    <sheet name="河南数据集K=4" sheetId="8" r:id="rId2"/>
-    <sheet name="河北数据集K=7" sheetId="4" r:id="rId3"/>
-    <sheet name="河北数据集K=3" sheetId="5" r:id="rId4"/>
-    <sheet name="河北数据集K=4" sheetId="7" r:id="rId5"/>
-    <sheet name="河北数据集K=5" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="河北数据集K=7" sheetId="4" r:id="rId2"/>
+    <sheet name="河北数据集K=3" sheetId="5" r:id="rId3"/>
+    <sheet name="河北数据集K=4" sheetId="7" r:id="rId4"/>
+    <sheet name="北京数据集K=7" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
   <si>
     <t xml:space="preserve">RMSE </t>
   </si>
@@ -714,11 +712,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1036,7 +1034,7 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1226,34 +1224,34 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1266,152 +1264,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.0083</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.0105</v>
-      </c>
-      <c r="D6">
-        <v>0.0063</v>
-      </c>
-      <c r="E6">
-        <v>0.9957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>0.0077</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.0094</v>
-      </c>
-      <c r="D10">
-        <v>0.0057</v>
-      </c>
-      <c r="E10">
-        <v>0.9963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:E17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E17"/>
@@ -1595,34 +1447,257 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.0296</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0287</v>
+      </c>
+      <c r="D2">
+        <v>0.022</v>
+      </c>
+      <c r="E2">
+        <v>0.8915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.0315</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0293</v>
+      </c>
+      <c r="D3">
+        <v>0.0228</v>
+      </c>
+      <c r="E3">
+        <v>0.8768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.0343</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0336</v>
+      </c>
+      <c r="D4">
+        <v>0.0261</v>
+      </c>
+      <c r="E4">
+        <v>0.8544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.0352</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0344</v>
+      </c>
+      <c r="D5">
+        <v>0.0267</v>
+      </c>
+      <c r="E5">
+        <v>0.8463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.0162</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0163</v>
+      </c>
+      <c r="D6">
+        <v>0.0124</v>
+      </c>
+      <c r="E6">
+        <v>0.9677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.0163</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0165</v>
+      </c>
+      <c r="D7">
+        <v>0.0126</v>
+      </c>
+      <c r="E7">
+        <v>0.967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.0165</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0166</v>
+      </c>
+      <c r="D8">
+        <v>0.0126</v>
+      </c>
+      <c r="E8">
+        <v>0.9665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.0164</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0164</v>
+      </c>
+      <c r="D9">
+        <v>0.0125</v>
+      </c>
+      <c r="E9">
+        <v>0.9665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.0106</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0103</v>
+      </c>
+      <c r="D10">
+        <v>0.0079</v>
+      </c>
+      <c r="E10">
+        <v>0.9861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1639,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1669,16 +1744,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0296</v>
+        <v>0.0293</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0287</v>
-      </c>
-      <c r="D2">
-        <v>0.022</v>
+        <v>0.0281</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0215</v>
       </c>
       <c r="E2">
-        <v>0.8915</v>
+        <v>0.8937</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1686,16 +1761,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0315</v>
+        <v>0.0317</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0293</v>
+        <v>0.0291</v>
       </c>
       <c r="D3">
-        <v>0.0228</v>
+        <v>0.0227</v>
       </c>
       <c r="E3">
-        <v>0.8768</v>
+        <v>0.8757</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1703,16 +1778,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0343</v>
+        <v>0.033</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0336</v>
+        <v>0.0316</v>
       </c>
       <c r="D4">
-        <v>0.0261</v>
+        <v>0.0245</v>
       </c>
       <c r="E4">
-        <v>0.8544</v>
+        <v>0.8654</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1720,16 +1795,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.0352</v>
+        <v>0.0347</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0344</v>
+        <v>0.034</v>
       </c>
       <c r="D5">
-        <v>0.0267</v>
+        <v>0.0263</v>
       </c>
       <c r="E5">
-        <v>0.8463</v>
+        <v>0.8506</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1737,16 +1812,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.0162</v>
+        <v>0.0118</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0163</v>
+        <v>0.0119</v>
       </c>
       <c r="D6">
-        <v>0.0124</v>
+        <v>0.0091</v>
       </c>
       <c r="E6">
-        <v>0.9677</v>
+        <v>0.9828</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1754,16 +1829,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0163</v>
+        <v>0.0122</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0165</v>
+        <v>0.0123</v>
       </c>
       <c r="D7">
-        <v>0.0126</v>
+        <v>0.0093</v>
       </c>
       <c r="E7">
-        <v>0.967</v>
+        <v>0.9815</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1771,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0165</v>
+        <v>0.0125</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0166</v>
+        <v>0.0126</v>
       </c>
       <c r="D8">
-        <v>0.0126</v>
+        <v>0.0097</v>
       </c>
       <c r="E8">
-        <v>0.9665</v>
+        <v>0.9807</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1788,16 +1863,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0164</v>
+        <v>0.0124</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0164</v>
+        <v>0.0126</v>
       </c>
       <c r="D9">
-        <v>0.0125</v>
+        <v>0.0096</v>
       </c>
       <c r="E9">
-        <v>0.9665</v>
+        <v>0.9809</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1805,47 +1880,47 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0106</v>
+        <v>0.0082</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0103</v>
+        <v>0.008</v>
       </c>
       <c r="D10">
-        <v>0.0079</v>
+        <v>0.0062</v>
       </c>
       <c r="E10">
-        <v>0.9861</v>
+        <v>0.9917</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1860,17 +1935,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1891,189 +1968,66 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.0293</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.0281</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0215</v>
-      </c>
-      <c r="E2">
-        <v>0.8937</v>
-      </c>
+      <c r="B2"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.0317</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.0291</v>
-      </c>
-      <c r="D3">
-        <v>0.0227</v>
-      </c>
-      <c r="E3">
-        <v>0.8757</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.033</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.0316</v>
-      </c>
-      <c r="D4">
-        <v>0.0245</v>
-      </c>
-      <c r="E4">
-        <v>0.8654</v>
-      </c>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.0347</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.034</v>
-      </c>
-      <c r="D5">
-        <v>0.0263</v>
-      </c>
-      <c r="E5">
-        <v>0.8506</v>
-      </c>
+      <c r="B5"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0.0118</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.0119</v>
-      </c>
-      <c r="D6">
-        <v>0.0091</v>
-      </c>
-      <c r="E6">
-        <v>0.9828</v>
-      </c>
+      <c r="B6"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>0.0122</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.0123</v>
-      </c>
-      <c r="D7">
-        <v>0.0093</v>
-      </c>
-      <c r="E7">
-        <v>0.9815</v>
-      </c>
+      <c r="B7"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>0.0125</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.0126</v>
-      </c>
-      <c r="D8">
-        <v>0.0097</v>
-      </c>
-      <c r="E8">
-        <v>0.9807</v>
-      </c>
+      <c r="B8"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>0.0124</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.0126</v>
-      </c>
-      <c r="D9">
-        <v>0.0096</v>
-      </c>
-      <c r="E9">
-        <v>0.9809</v>
-      </c>
+      <c r="B9"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>0.0082</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.008</v>
-      </c>
-      <c r="D10">
-        <v>0.0062</v>
-      </c>
-      <c r="E10">
-        <v>0.9917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B10"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:E17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2081,169 +2035,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.0081</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.0078</v>
-      </c>
-      <c r="D6">
-        <v>0.006</v>
-      </c>
-      <c r="E6">
-        <v>0.9919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>0.0076</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.0072</v>
-      </c>
-      <c r="D10">
-        <v>0.0056</v>
-      </c>
-      <c r="E10">
-        <v>0.9929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:E17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
